--- a/Assets/SDProject/DataTables/Xlsx/CharacterData.xlsx
+++ b/Assets/SDProject/DataTables/Xlsx/CharacterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SD\SDProject\Assets\SDProject\DataTables\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD495B5-B09A-452F-B70C-3778D8227873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA89833-2AA8-4DB2-A547-DD7E0A912A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>enum</t>
   </si>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>Support</t>
+  </si>
+  <si>
+    <t>PrefabKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF_TestUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +580,7 @@
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -636,8 +644,11 @@
       <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -701,8 +712,11 @@
       <c r="U2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -755,8 +769,11 @@
       <c r="T3">
         <v>1</v>
       </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -808,8 +825,11 @@
       <c r="T4">
         <v>1</v>
       </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -861,8 +881,11 @@
       <c r="T5">
         <v>1</v>
       </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -913,6 +936,9 @@
       </c>
       <c r="T6">
         <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
